--- a/e-list/Restaurent_list_Bavaria.xlsx
+++ b/e-list/Restaurent_list_Bavaria.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$A$3171</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$2:$A$3171</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -4823,8 +4823,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4840,34 +4844,30 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A1575"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1584" activeCellId="0" sqref="A1584"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="105.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="10.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -12737,13 +12737,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:A3171">
-    <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="**none**" val=""/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -12751,6 +12744,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>